--- a/medicine/Sexualité et sexologie/Kâma_(divinité)/Kâma_(divinité).xlsx
+++ b/medicine/Sexualité et sexologie/Kâma_(divinité)/Kâma_(divinité).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>K%C3%A2ma_(divinit%C3%A9)</t>
+          <t>Kâma_(divinité)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le dieu Kâma  (en sanskrit कामदेव, Kāmadeva ; de kāma, le « désir »[1] et deva « dieu ») est la divinité hindoue du désir, et plus particulièrement du désir amoureux. Comme l'Éros grec, il utilise un arc et des flèches pour répandre l'amour. Il est le fils de Dharma et de Shraddha. Mentionné dans le Rig-Véda comme le plus puissant des dieux (mais presque chaque dieu védique est loué comme étant « le plus puissant des dieux »), il symbolise le moteur qui pousse les hommes à la perpétuation de leur espèce. En d'autres termes, il symbolise le désir sexuel ou la libido. Par suite, il régente le samsâra.
+Le dieu Kâma  (en sanskrit कामदेव, Kāmadeva ; de kāma, le « désir » et deva « dieu ») est la divinité hindoue du désir, et plus particulièrement du désir amoureux. Comme l'Éros grec, il utilise un arc et des flèches pour répandre l'amour. Il est le fils de Dharma et de Shraddha. Mentionné dans le Rig-Véda comme le plus puissant des dieux (mais presque chaque dieu védique est loué comme étant « le plus puissant des dieux »), il symbolise le moteur qui pousse les hommes à la perpétuation de leur espèce. En d'autres termes, il symbolise le désir sexuel ou la libido. Par suite, il régente le samsâra.
 Le dieu de l'amour est à rapprocher du concept de Kama.
 </t>
         </is>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>K%C3%A2ma_(divinit%C3%A9)</t>
+          <t>Kâma_(divinité)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Origine et légendes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est généralement considéré comme naissant de lui-même, qualifié de ananyaja, c'est-à-dire né de nul autre. Son lieu traditionnel de naissance est la ville de Gauhatî dans l'Assam. Son épouse est Ratî ou Revâ, le désir, et son frère Krodha, la colère, son fils Aniruddha (en), sans-rival, et sa fille Thrishnâ, la soif.
 Puissance du désir qui dévore les hommes, l'Atharva-Veda l'identifie à Agni, le dieu du feu. D'après les Brâhmana, il est à la source de la création de l'univers, car il aurait instillé à Brahmâ le désir de ne pas être seul.
@@ -531,7 +545,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>K%C3%A2ma_(divinit%C3%A9)</t>
+          <t>Kâma_(divinité)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -549,7 +563,9 @@
           <t>Iconographie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Kâma est représenté comme un jeune homme à la peau noire, à deux ou huit bras, possédant un arc en canne à sucre dont la corde est une chaîne d'abeilles et cinq flèches de fleurs, lotus bleu, jasmin, fleur de manguier, champaka et shirîsha, qui représentent les cinq sens. Son vâhana ou véhicule est un perroquet et celui de son épouse, Ratî, un pigeon.
 </t>
@@ -562,7 +578,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>K%C3%A2ma_(divinit%C3%A9)</t>
+          <t>Kâma_(divinité)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -580,7 +596,9 @@
           <t>Kâma dans d'autres cultures</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Au Japon : Yoku
 Daphné et Apollon, dans les Métamorphoses d'Ovide</t>
